--- a/data/data_raw/eurostat/AT_coal_NRG_CB_SFFM.xlsx
+++ b/data/data_raw/eurostat/AT_coal_NRG_CB_SFFM.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HD50"/>
+  <dimension ref="A1:HG50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1489,6 +1489,21 @@
           <t>2025-02</t>
         </is>
       </c>
+      <c r="HE1" s="1" t="inlineStr">
+        <is>
+          <t>2025-03</t>
+        </is>
+      </c>
+      <c r="HF1" s="1" t="inlineStr">
+        <is>
+          <t>2025-04</t>
+        </is>
+      </c>
+      <c r="HG1" s="1" t="inlineStr">
+        <is>
+          <t>2025-05</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -2134,7 +2149,14 @@
       <c r="HC2" t="n">
         <v>0</v>
       </c>
-      <c r="HD2" t="inlineStr"/>
+      <c r="HD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF2" t="inlineStr"/>
+      <c r="HG2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -2780,7 +2802,14 @@
       <c r="HC3" t="n">
         <v>0</v>
       </c>
-      <c r="HD3" t="inlineStr"/>
+      <c r="HD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF3" t="inlineStr"/>
+      <c r="HG3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -3426,7 +3455,14 @@
       <c r="HC4" t="n">
         <v>197.244</v>
       </c>
-      <c r="HD4" t="inlineStr"/>
+      <c r="HD4" t="n">
+        <v>190.369</v>
+      </c>
+      <c r="HE4" t="n">
+        <v>162.223</v>
+      </c>
+      <c r="HF4" t="inlineStr"/>
+      <c r="HG4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -3854,9 +3890,16 @@
         <v>68.65600000000001</v>
       </c>
       <c r="HC5" t="n">
-        <v>68.20399999999999</v>
-      </c>
-      <c r="HD5" t="inlineStr"/>
+        <v>97.444</v>
+      </c>
+      <c r="HD5" t="n">
+        <v>87.08199999999999</v>
+      </c>
+      <c r="HE5" t="n">
+        <v>65.965</v>
+      </c>
+      <c r="HF5" t="inlineStr"/>
+      <c r="HG5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -4502,7 +4545,14 @@
       <c r="HC6" t="n">
         <v>0</v>
       </c>
-      <c r="HD6" t="inlineStr"/>
+      <c r="HD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF6" t="inlineStr"/>
+      <c r="HG6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -5148,7 +5198,14 @@
       <c r="HC7" t="n">
         <v>241.415</v>
       </c>
-      <c r="HD7" t="inlineStr"/>
+      <c r="HD7" t="n">
+        <v>230.823</v>
+      </c>
+      <c r="HE7" t="n">
+        <v>251.012</v>
+      </c>
+      <c r="HF7" t="inlineStr"/>
+      <c r="HG7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -5794,7 +5851,14 @@
       <c r="HC8" t="n">
         <v>230.823</v>
       </c>
-      <c r="HD8" t="inlineStr"/>
+      <c r="HD8" t="n">
+        <v>251.012</v>
+      </c>
+      <c r="HE8" t="n">
+        <v>208.5</v>
+      </c>
+      <c r="HF8" t="inlineStr"/>
+      <c r="HG8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -6440,7 +6504,14 @@
       <c r="HC9" t="n">
         <v>10.592</v>
       </c>
-      <c r="HD9" t="inlineStr"/>
+      <c r="HD9" t="n">
+        <v>-20.189</v>
+      </c>
+      <c r="HE9" t="n">
+        <v>42.511</v>
+      </c>
+      <c r="HF9" t="inlineStr"/>
+      <c r="HG9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -7086,7 +7157,14 @@
       <c r="HC10" t="n">
         <v>207.836</v>
       </c>
-      <c r="HD10" t="inlineStr"/>
+      <c r="HD10" t="n">
+        <v>170.18</v>
+      </c>
+      <c r="HE10" t="n">
+        <v>204.735</v>
+      </c>
+      <c r="HF10" t="inlineStr"/>
+      <c r="HG10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -7516,7 +7594,14 @@
       <c r="HC11" t="n">
         <v>207.719</v>
       </c>
-      <c r="HD11" t="inlineStr"/>
+      <c r="HD11" t="n">
+        <v>169.979</v>
+      </c>
+      <c r="HE11" t="n">
+        <v>205.052</v>
+      </c>
+      <c r="HF11" t="inlineStr"/>
+      <c r="HG11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -8162,7 +8247,14 @@
       <c r="HC12" t="n">
         <v>0</v>
       </c>
-      <c r="HD12" t="inlineStr"/>
+      <c r="HD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF12" t="inlineStr"/>
+      <c r="HG12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -8808,7 +8900,14 @@
       <c r="HC13" t="n">
         <v>147.757</v>
       </c>
-      <c r="HD13" t="inlineStr"/>
+      <c r="HD13" t="n">
+        <v>131.052</v>
+      </c>
+      <c r="HE13" t="n">
+        <v>146.142</v>
+      </c>
+      <c r="HF13" t="inlineStr"/>
+      <c r="HG13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -9454,7 +9553,14 @@
       <c r="HC14" t="n">
         <v>58.961</v>
       </c>
-      <c r="HD14" t="inlineStr"/>
+      <c r="HD14" t="n">
+        <v>37.927</v>
+      </c>
+      <c r="HE14" t="n">
+        <v>57.91</v>
+      </c>
+      <c r="HF14" t="inlineStr"/>
+      <c r="HG14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -9884,7 +9990,14 @@
       <c r="HC15" t="n">
         <v>56.311</v>
       </c>
-      <c r="HD15" t="inlineStr"/>
+      <c r="HD15" t="n">
+        <v>35.277</v>
+      </c>
+      <c r="HE15" t="n">
+        <v>57.91</v>
+      </c>
+      <c r="HF15" t="inlineStr"/>
+      <c r="HG15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -10530,7 +10643,14 @@
       <c r="HC16" t="n">
         <v>1</v>
       </c>
-      <c r="HD16" t="inlineStr"/>
+      <c r="HD16" t="n">
+        <v>1</v>
+      </c>
+      <c r="HE16" t="n">
+        <v>1</v>
+      </c>
+      <c r="HF16" t="inlineStr"/>
+      <c r="HG16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -10960,7 +11080,14 @@
       <c r="HC17" t="n">
         <v>0.117</v>
       </c>
-      <c r="HD17" t="inlineStr"/>
+      <c r="HD17" t="n">
+        <v>0.201</v>
+      </c>
+      <c r="HE17" t="n">
+        <v>-0.318</v>
+      </c>
+      <c r="HF17" t="inlineStr"/>
+      <c r="HG17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -11606,7 +11733,14 @@
       <c r="HC18" t="n">
         <v>0</v>
       </c>
-      <c r="HD18" t="inlineStr"/>
+      <c r="HD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF18" t="inlineStr"/>
+      <c r="HG18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -12252,7 +12386,14 @@
       <c r="HC19" t="n">
         <v>3.018</v>
       </c>
-      <c r="HD19" t="inlineStr"/>
+      <c r="HD19" t="n">
+        <v>1.289</v>
+      </c>
+      <c r="HE19" t="n">
+        <v>1.052</v>
+      </c>
+      <c r="HF19" t="inlineStr"/>
+      <c r="HG19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -12898,7 +13039,14 @@
       <c r="HC20" t="n">
         <v>0</v>
       </c>
-      <c r="HD20" t="inlineStr"/>
+      <c r="HD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF20" t="inlineStr"/>
+      <c r="HG20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -13544,7 +13692,14 @@
       <c r="HC21" t="n">
         <v>0</v>
       </c>
-      <c r="HD21" t="inlineStr"/>
+      <c r="HD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF21" t="inlineStr"/>
+      <c r="HG21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -14190,7 +14345,14 @@
       <c r="HC22" t="n">
         <v>0</v>
       </c>
-      <c r="HD22" t="inlineStr"/>
+      <c r="HD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF22" t="inlineStr"/>
+      <c r="HG22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -14836,7 +14998,14 @@
       <c r="HC23" t="n">
         <v>0</v>
       </c>
-      <c r="HD23" t="inlineStr"/>
+      <c r="HD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF23" t="inlineStr"/>
+      <c r="HG23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -15482,7 +15651,14 @@
       <c r="HC24" t="n">
         <v>3.018</v>
       </c>
-      <c r="HD24" t="inlineStr"/>
+      <c r="HD24" t="n">
+        <v>1.289</v>
+      </c>
+      <c r="HE24" t="n">
+        <v>1.052</v>
+      </c>
+      <c r="HF24" t="inlineStr"/>
+      <c r="HG24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -16128,7 +16304,14 @@
       <c r="HC25" t="n">
         <v>0</v>
       </c>
-      <c r="HD25" t="inlineStr"/>
+      <c r="HD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF25" t="inlineStr"/>
+      <c r="HG25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -16774,7 +16957,14 @@
       <c r="HC26" t="n">
         <v>107.522</v>
       </c>
-      <c r="HD26" t="inlineStr"/>
+      <c r="HD26" t="n">
+        <v>94.94199999999999</v>
+      </c>
+      <c r="HE26" t="n">
+        <v>108.518</v>
+      </c>
+      <c r="HF26" t="inlineStr"/>
+      <c r="HG26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -17420,7 +17610,14 @@
       <c r="HC27" t="n">
         <v>77.196</v>
       </c>
-      <c r="HD27" t="inlineStr"/>
+      <c r="HD27" t="n">
+        <v>66.551</v>
+      </c>
+      <c r="HE27" t="n">
+        <v>91.952</v>
+      </c>
+      <c r="HF27" t="inlineStr"/>
+      <c r="HG27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -17850,7 +18047,14 @@
       <c r="HC28" t="n">
         <v>0</v>
       </c>
-      <c r="HD28" t="inlineStr"/>
+      <c r="HD28" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE28" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF28" t="inlineStr"/>
+      <c r="HG28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -18496,7 +18700,14 @@
       <c r="HC29" t="n">
         <v>0</v>
       </c>
-      <c r="HD29" t="inlineStr"/>
+      <c r="HD29" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE29" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF29" t="inlineStr"/>
+      <c r="HG29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -19142,7 +19353,14 @@
       <c r="HC30" t="n">
         <v>65.621</v>
       </c>
-      <c r="HD30" t="inlineStr"/>
+      <c r="HD30" t="n">
+        <v>70.694</v>
+      </c>
+      <c r="HE30" t="n">
+        <v>67.02</v>
+      </c>
+      <c r="HF30" t="inlineStr"/>
+      <c r="HG30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -19788,7 +20006,14 @@
       <c r="HC31" t="n">
         <v>70.694</v>
       </c>
-      <c r="HD31" t="inlineStr"/>
+      <c r="HD31" t="n">
+        <v>67.02</v>
+      </c>
+      <c r="HE31" t="n">
+        <v>70.893</v>
+      </c>
+      <c r="HF31" t="inlineStr"/>
+      <c r="HG31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -20434,7 +20659,14 @@
       <c r="HC32" t="n">
         <v>-5.073</v>
       </c>
-      <c r="HD32" t="inlineStr"/>
+      <c r="HD32" t="n">
+        <v>3.674</v>
+      </c>
+      <c r="HE32" t="n">
+        <v>-3.873</v>
+      </c>
+      <c r="HF32" t="inlineStr"/>
+      <c r="HG32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -21080,7 +21312,14 @@
       <c r="HC33" t="n">
         <v>179.645</v>
       </c>
-      <c r="HD33" t="inlineStr"/>
+      <c r="HD33" t="n">
+        <v>165.167</v>
+      </c>
+      <c r="HE33" t="n">
+        <v>196.597</v>
+      </c>
+      <c r="HF33" t="inlineStr"/>
+      <c r="HG33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -21726,7 +21965,14 @@
       <c r="HC34" t="n">
         <v>175.678</v>
       </c>
-      <c r="HD34" t="inlineStr"/>
+      <c r="HD34" t="n">
+        <v>159.339</v>
+      </c>
+      <c r="HE34" t="n">
+        <v>189.257</v>
+      </c>
+      <c r="HF34" t="inlineStr"/>
+      <c r="HG34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -22372,7 +22618,14 @@
       <c r="HC35" t="n">
         <v>0</v>
       </c>
-      <c r="HD35" t="inlineStr"/>
+      <c r="HD35" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE35" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF35" t="inlineStr"/>
+      <c r="HG35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -23018,7 +23271,14 @@
       <c r="HC36" t="n">
         <v>0</v>
       </c>
-      <c r="HD36" t="inlineStr"/>
+      <c r="HD36" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE36" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF36" t="inlineStr"/>
+      <c r="HG36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -23664,7 +23924,14 @@
       <c r="HC37" t="n">
         <v>0</v>
       </c>
-      <c r="HD37" t="inlineStr"/>
+      <c r="HD37" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE37" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF37" t="inlineStr"/>
+      <c r="HG37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -24117,6 +24384,9 @@
       <c r="HB38" t="inlineStr"/>
       <c r="HC38" t="inlineStr"/>
       <c r="HD38" t="inlineStr"/>
+      <c r="HE38" t="inlineStr"/>
+      <c r="HF38" t="inlineStr"/>
+      <c r="HG38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -24569,6 +24839,9 @@
       <c r="HB39" t="inlineStr"/>
       <c r="HC39" t="inlineStr"/>
       <c r="HD39" t="inlineStr"/>
+      <c r="HE39" t="inlineStr"/>
+      <c r="HF39" t="inlineStr"/>
+      <c r="HG39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -25214,7 +25487,14 @@
       <c r="HC40" t="n">
         <v>0</v>
       </c>
-      <c r="HD40" t="inlineStr"/>
+      <c r="HD40" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE40" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF40" t="inlineStr"/>
+      <c r="HG40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -25860,7 +26140,14 @@
       <c r="HC41" t="n">
         <v>0</v>
       </c>
-      <c r="HD41" t="inlineStr"/>
+      <c r="HD41" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE41" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF41" t="inlineStr"/>
+      <c r="HG41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -26506,7 +26793,14 @@
       <c r="HC42" t="n">
         <v>0</v>
       </c>
-      <c r="HD42" t="inlineStr"/>
+      <c r="HD42" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE42" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF42" t="inlineStr"/>
+      <c r="HG42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -26936,7 +27230,14 @@
       <c r="HC43" t="n">
         <v>0</v>
       </c>
-      <c r="HD43" t="inlineStr"/>
+      <c r="HD43" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE43" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF43" t="inlineStr"/>
+      <c r="HG43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -27366,7 +27667,14 @@
       <c r="HC44" t="n">
         <v>0</v>
       </c>
-      <c r="HD44" t="inlineStr"/>
+      <c r="HD44" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE44" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF44" t="inlineStr"/>
+      <c r="HG44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -27796,7 +28104,14 @@
       <c r="HC45" t="n">
         <v>0</v>
       </c>
-      <c r="HD45" t="inlineStr"/>
+      <c r="HD45" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE45" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF45" t="inlineStr"/>
+      <c r="HG45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -28226,7 +28541,14 @@
       <c r="HC46" t="n">
         <v>0</v>
       </c>
-      <c r="HD46" t="inlineStr"/>
+      <c r="HD46" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE46" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF46" t="inlineStr"/>
+      <c r="HG46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -28656,7 +28978,14 @@
       <c r="HC47" t="n">
         <v>0</v>
       </c>
-      <c r="HD47" t="inlineStr"/>
+      <c r="HD47" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE47" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF47" t="inlineStr"/>
+      <c r="HG47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -29086,7 +29415,14 @@
       <c r="HC48" t="n">
         <v>0</v>
       </c>
-      <c r="HD48" t="inlineStr"/>
+      <c r="HD48" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE48" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF48" t="inlineStr"/>
+      <c r="HG48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -29516,7 +29852,14 @@
       <c r="HC49" t="n">
         <v>0</v>
       </c>
-      <c r="HD49" t="inlineStr"/>
+      <c r="HD49" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE49" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF49" t="inlineStr"/>
+      <c r="HG49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -29946,7 +30289,14 @@
       <c r="HC50" t="n">
         <v>0</v>
       </c>
-      <c r="HD50" t="inlineStr"/>
+      <c r="HD50" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE50" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF50" t="inlineStr"/>
+      <c r="HG50" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
